--- a/02575_data.xlsx
+++ b/02575_data.xlsx
@@ -43,7 +43,7 @@
     <t>HN_100A</t>
   </si>
   <si>
-    <t>precipitation_time</t>
+    <t>precipitation_time / min</t>
   </si>
   <si>
     <t>0005</t>
